--- a/outputs-HGR-r202/g__Faecalibacillus.xlsx
+++ b/outputs-HGR-r202/g__Faecalibacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,40 +442,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__Faecalibacillus faecis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__Faecalibacillus faecis</t>
+          <t>2-s__Faecalibacillus intestinalis</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__Faecalibacillus intestinalis</t>
+          <t>3-s__Faecalibacillus sp003480255</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__Faecalibacillus sp003480255</t>
+          <t>4-s__Faecalibacillus sp900544435</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5-s__Faecalibacillus sp900544435</t>
+          <t>max</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -488,31 +483,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06911395587452961</v>
+        <v>0.4358036218772203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6551627574336543</v>
+        <v>0.2114699811856081</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06228773606899055</v>
+        <v>0.1104241762024003</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1758679191105414</v>
+        <v>0.2423022207347713</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03756763151228415</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.6551627574336543</v>
+        <v>0.4358036218772203</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>s__Faecalibacillus faecis</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>s__Faecalibacillus faecis(reject)</t>
         </is>
       </c>
     </row>
@@ -523,29 +515,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03676735001252521</v>
+        <v>0.5146421212537547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8556687893029492</v>
+        <v>0.2097953426216634</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07509494466459742</v>
+        <v>0.06800493574777799</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009208456747726653</v>
+        <v>0.207557600376804</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02326045927220142</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8556687893029492</v>
+        <v>0.5146421212537547</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>s__Faecalibacillus faecis</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>s__Faecalibacillus faecis</t>
         </is>
@@ -558,31 +547,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03666363207748808</v>
+        <v>0.4027751334873187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.722146745851086</v>
+        <v>0.2553016721797021</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1128594483406989</v>
+        <v>0.08837600829669567</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01532749598248923</v>
+        <v>0.2535471860362835</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1130026777482377</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.722146745851086</v>
+        <v>0.4027751334873187</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>s__Faecalibacillus faecis</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>s__Faecalibacillus faecis(reject)</t>
         </is>
       </c>
     </row>
@@ -593,29 +579,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03010952929740674</v>
+        <v>0.5061571958690694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8763224764441414</v>
+        <v>0.2124119935627818</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03556037637165523</v>
+        <v>0.02908321984991724</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001660990641357538</v>
+        <v>0.2523475907182315</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05634662724543909</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8763224764441414</v>
+        <v>0.5061571958690694</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>s__Faecalibacillus faecis</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>s__Faecalibacillus faecis</t>
         </is>
@@ -628,29 +611,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03203574459466695</v>
+        <v>0.4334074527468796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8414649008485996</v>
+        <v>0.1911271582054412</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04743042079713907</v>
+        <v>0.05233062400165955</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004809373566900652</v>
+        <v>0.3231347650460197</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0742595601926936</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8414649008485996</v>
+        <v>0.4334074527468796</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>s__Faecalibacillus faecis</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>s__Faecalibacillus faecis</t>
         </is>
@@ -663,31 +643,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03939070314094316</v>
+        <v>0.4559833706557447</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5055754700404641</v>
+        <v>0.1616334080264437</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01677524046615674</v>
+        <v>0.1633054645728471</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4289752031565599</v>
+        <v>0.2190777567449643</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009283383195875999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5055754700404641</v>
+        <v>0.4559833706557447</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>s__Faecalibacillus faecis</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>s__Faecalibacillus faecis(reject)</t>
         </is>
       </c>
     </row>
@@ -698,29 +675,26 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0346406566627521</v>
+        <v>0.4839269745599754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8376437298022615</v>
+        <v>0.1918305129798349</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03403811427155741</v>
+        <v>0.04429913171989341</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0007697025632796123</v>
+        <v>0.2799433807402962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09290779670014941</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8376437298022615</v>
+        <v>0.4839269745599754</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t>s__Faecalibacillus faecis</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>s__Faecalibacillus faecis</t>
         </is>
@@ -733,29 +707,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03756713966338491</v>
+        <v>0.3968488747201012</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7793353654002692</v>
+        <v>0.2041308867372078</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07708925975308661</v>
+        <v>0.02438737633764388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0008448311366291047</v>
+        <v>0.3746328622050471</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1051634040466304</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7793353654002692</v>
+        <v>0.3968488747201012</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t>s__Faecalibacillus faecis</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>s__Faecalibacillus faecis</t>
         </is>

--- a/outputs-HGR-r202/g__Faecalibacillus.xlsx
+++ b/outputs-HGR-r202/g__Faecalibacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>s__Faecalibacillus faecis</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>s__Faecalibacillus faecis</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>s__Faecalibacillus sp003480255</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus sp003480255(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>s__Faecalibacillus faecis</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>s__Faecalibacillus faecis</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>s__Faecalibacillus faecis</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>s__Faecalibacillus faecis</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>s__Faecalibacillus faecis</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -709,6 +754,11 @@
         <v>0.3968488747201012</v>
       </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>s__Faecalibacillus faecis</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>s__Faecalibacillus faecis</t>
         </is>

--- a/outputs-HGR-r202/g__Faecalibacillus.xlsx
+++ b/outputs-HGR-r202/g__Faecalibacillus.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>s__Faecalibacillus sp003480255</t>
+          <t>s__Faecalibacillus sp003480255(reject)</t>
         </is>
       </c>
     </row>
